--- a/server/templates/excel/SCADA-Stings-monitoring.xlsx
+++ b/server/templates/excel/SCADA-Stings-monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D10008-BFB5-4F1D-A12D-82BC69649E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCEBDA-6F2D-4973-A25C-9B88D5C9E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scada Strings 1st week" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:Z284"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.65" customHeight="1" zeroHeight="1"/>
@@ -1584,9 +1584,7 @@
       <c r="I14" s="115"/>
       <c r="J14" s="86"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="2.4500000000000002" customHeight="1">
@@ -2412,6 +2410,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </OMContract>
+    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </ASBDrawing>
+    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </CommencementNotice>
+    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2718,58 +2751,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </OMContract>
-    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </ASBDrawing>
-    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </CommencementNotice>
-    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
-    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2793,9 +2778,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
+    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/server/templates/excel/SCADA-Stings-monitoring.xlsx
+++ b/server/templates/excel/SCADA-Stings-monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCEBDA-6F2D-4973-A25C-9B88D5C9E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25219A7B-CF0A-4B93-A131-23BF0AE145D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scada Strings 1st week" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>{final_observations}</t>
+  </si>
+  <si>
+    <t>Weekly SCADA Strings monitoring</t>
+  </si>
+  <si>
+    <t>{inspection_complete}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1298,7 @@
   <dimension ref="A1:Z284"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F5" sqref="F5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.65" customHeight="1" zeroHeight="1"/>
@@ -1352,7 +1364,7 @@
       <c r="D3" s="103"/>
       <c r="E3" s="104"/>
       <c r="F3" s="105" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G3" s="106"/>
       <c r="H3" s="106"/>
@@ -1385,14 +1397,14 @@
     </row>
     <row r="5" spans="1:13" ht="22.15" customHeight="1" thickBot="1">
       <c r="A5" s="108" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B5" s="109"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
       <c r="E5" s="110"/>
       <c r="F5" s="108" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="110"/>
@@ -1489,7 +1501,9 @@
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
-      <c r="L9" s="53"/>
+      <c r="L9" s="53" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="9" customHeight="1" thickTop="1">
@@ -2410,15 +2424,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2444,7 +2449,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2751,15 +2756,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2777,7 +2783,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2796,4 +2802,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>